--- a/ServiceAreaClient/Docs/Device_SN_Description_150807.xlsx
+++ b/ServiceAreaClient/Docs/Device_SN_Description_150807.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="145">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1"/>
@@ -340,10 +340,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -377,10 +373,6 @@
   </si>
   <si>
     <t>摄像头</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>温度传感器</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -422,6 +414,189 @@
   </si>
   <si>
     <t>数据库表设计待定.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古城子服务区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>室温传感器</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水温传感器</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北区客房</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南区客房</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北区开水机</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北区室外洗手池</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南区开水机</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南区室外洗手池</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北区总电表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南区总电表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北区地热泵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南区地热泵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北区地热泵进水</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南区地热泵进水</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北区地热泵回水</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南区地热泵回水</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北区餐厅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南区餐厅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北区服务大厅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南区服务大厅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>总电表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西区路灯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>东区路灯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西区餐厅照明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西区餐厅动力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>东区餐厅照明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>东区中央空调</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西区客房</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>东区客房</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西区餐厅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西区服务大厅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>东区餐厅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>东区服务大厅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>锅炉房进水</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>锅炉房回水</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西区总水表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西区公厕</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西区开水机</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>东区总水表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>东区公厕</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>东区开水机</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井泉服务区</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -429,7 +604,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,21 +648,81 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -496,14 +731,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -520,6 +752,42 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,76 +1085,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="6" t="s">
+    <row r="10" spans="1:2">
+      <c r="B10" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="6" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" s="5">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="6">
-        <v>3</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="6">
-        <v>4</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -898,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:E104"/>
+  <dimension ref="B3:F144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -910,853 +1178,1443 @@
     <col min="3" max="3" width="36" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="16.5">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:6" ht="20.25">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="2:5" ht="16.5">
-      <c r="B4" s="2">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="4" spans="2:6" ht="16.5">
+      <c r="B4" s="15">
+        <v>100</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="16.5">
-      <c r="B5" s="2">
+    <row r="5" spans="2:6" ht="16.5">
+      <c r="B5" s="15">
         <v>101</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="2:5" ht="16.5">
-      <c r="B6" s="2">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="2:6" ht="16.5">
+      <c r="B6" s="15">
         <v>102</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="2:5" ht="16.5">
-      <c r="B7" s="2">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="2:6" ht="16.5">
+      <c r="B7" s="15">
         <v>103</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="2:5" ht="16.5">
-      <c r="B8" s="2">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="2:6" ht="16.5">
+      <c r="B8" s="15">
         <v>104</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5" ht="16.5">
-      <c r="B9" s="2">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="2:6" ht="16.5">
+      <c r="B9" s="15">
         <v>105</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:5" ht="16.5">
-      <c r="B10" s="2">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="2:6" ht="16.5">
+      <c r="B10" s="15">
         <v>106</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:5" ht="16.5">
-      <c r="B11" s="2">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="2:6" ht="16.5">
+      <c r="B11" s="15">
         <v>107</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5" ht="16.5">
-      <c r="B12" s="2">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="2:6" ht="16.5">
+      <c r="B12" s="15">
         <v>108</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="2:5" ht="16.5">
-      <c r="B13" s="2">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="2:6" ht="16.5">
+      <c r="B13" s="15">
         <v>109</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:5" ht="16.5">
-      <c r="B14" s="2">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="2:6" ht="16.5">
+      <c r="B14" s="15">
         <v>110</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="2:6" ht="16.5">
+      <c r="B15" s="15">
+        <v>111</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="2:6" ht="16.5">
+      <c r="B16" s="15">
+        <v>112</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="2:6" ht="16.5">
+      <c r="B17" s="15">
+        <v>113</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="2:6" ht="16.5">
+      <c r="B18" s="15">
+        <v>114</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="16.5">
-      <c r="B15" s="2">
-        <v>111</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    <row r="19" spans="2:6" ht="16.5">
+      <c r="B19" s="15">
+        <v>115</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" ht="16.5">
-      <c r="B16" s="2">
-        <v>112</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="2:6" ht="16.5">
+      <c r="B20" s="15">
+        <v>116</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" ht="16.5">
-      <c r="B17" s="2">
-        <v>113</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="2:6" ht="16.5">
+      <c r="B21" s="15">
+        <v>117</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" ht="16.5">
-      <c r="B18" s="2">
-        <v>114</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="2:6" ht="16.5">
+      <c r="B22" s="15">
+        <v>118</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" ht="16.5">
-      <c r="B19" s="2">
-        <v>115</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="2:6" ht="16.5">
+      <c r="B23" s="15">
+        <v>119</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" ht="16.5">
-      <c r="B20" s="2">
-        <v>116</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="2:6" ht="16.5">
+      <c r="B24" s="15">
+        <v>120</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="2:6" ht="16.5">
+      <c r="B25" s="15">
+        <v>121</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="2:6" ht="16.5">
+      <c r="B26" s="15">
+        <v>122</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="2:6" ht="16.5">
+      <c r="B27" s="15">
+        <v>123</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="16.5">
-      <c r="B21" s="2">
-        <v>117</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    <row r="28" spans="2:6" ht="16.5">
+      <c r="B28" s="15">
+        <v>124</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5" ht="16.5">
-      <c r="B22" s="2">
-        <v>118</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="2:6" ht="16.5">
+      <c r="B29" s="15">
+        <v>125</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" ht="16.5">
-      <c r="B23" s="2">
-        <v>119</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="2:6" ht="16.5">
+      <c r="B30" s="15">
+        <v>126</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="2:6" ht="16.5">
+      <c r="B31" s="15">
+        <v>127</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="2:6" ht="16.5">
+      <c r="B32" s="15">
+        <v>128</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="2:6" ht="16.5">
+      <c r="B33" s="15">
+        <v>129</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="16.5">
-      <c r="B24" s="2">
-        <v>120</v>
-      </c>
-      <c r="C24" s="2" t="s">
+    <row r="34" spans="2:6" ht="16.5">
+      <c r="B34" s="15">
+        <v>130</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5" ht="16.5">
-      <c r="B25" s="2">
-        <v>121</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="2:6" ht="16.5">
+      <c r="B35" s="15">
+        <v>131</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:5" ht="16.5">
-      <c r="B26" s="2">
-        <v>122</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="2:6" ht="16.5">
+      <c r="B36" s="15">
+        <v>132</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" ht="16.5">
-      <c r="B27" s="2">
-        <v>123</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="2:6" ht="16.5">
+      <c r="B37" s="15">
+        <v>133</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="2:6" ht="16.5">
+      <c r="B38" s="15">
+        <v>134</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="2:6" ht="16.5">
+      <c r="B39" s="15">
+        <v>135</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="2:6" ht="16.5">
+      <c r="B40" s="15">
+        <v>136</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="16.5">
-      <c r="B28" s="2">
-        <v>124</v>
-      </c>
-      <c r="C28" s="2" t="s">
+    <row r="41" spans="2:6" ht="16.5">
+      <c r="B41" s="15">
+        <v>137</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="2:5" ht="16.5">
-      <c r="B29" s="2">
-        <v>125</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="2:6" ht="16.5">
+      <c r="B42" s="15">
+        <v>138</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5" ht="16.5">
-      <c r="B30" s="2">
-        <v>126</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="2:6" ht="16.5">
+      <c r="B43" s="15">
+        <v>139</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="2:6" ht="16.5">
+      <c r="B44" s="15">
+        <v>140</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="2:6" ht="16.5">
+      <c r="B45" s="15">
+        <v>141</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="2:6" ht="16.5">
+      <c r="B46" s="15">
+        <v>142</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="16.5">
-      <c r="B31" s="2">
-        <v>127</v>
-      </c>
-      <c r="C31" s="2" t="s">
+    <row r="47" spans="2:6" ht="16.5">
+      <c r="B47" s="15">
+        <v>143</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="2:5" ht="16.5">
-      <c r="B32" s="2">
-        <v>128</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" spans="2:6" ht="16.5">
+      <c r="B48" s="15">
+        <v>144</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="2:5" ht="16.5">
-      <c r="B33" s="2">
-        <v>129</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" spans="2:6" ht="16.5">
+      <c r="B49" s="15">
+        <v>145</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="2:5" ht="16.5">
-      <c r="B34" s="2">
-        <v>130</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" spans="2:6" ht="16.5">
+      <c r="B50" s="15">
+        <v>146</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="2:5" ht="16.5">
-      <c r="B35" s="2">
-        <v>131</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="2:6" ht="16.5">
+      <c r="B51" s="15">
+        <v>147</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="2:5" ht="16.5">
-      <c r="B36" s="2">
-        <v>132</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" spans="2:6" ht="16.5">
+      <c r="B52" s="15">
+        <v>148</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" spans="2:6" ht="16.5">
+      <c r="B53" s="15">
+        <v>149</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" spans="2:6" ht="16.5">
+      <c r="B54" s="15">
+        <v>150</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" spans="2:6" ht="16.5">
+      <c r="B55" s="15">
+        <v>151</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="16.5">
-      <c r="B37" s="2">
-        <v>133</v>
-      </c>
-      <c r="C37" s="2" t="s">
+    <row r="56" spans="2:6" ht="16.5">
+      <c r="B56" s="15">
+        <v>152</v>
+      </c>
+      <c r="C56" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="2:5" ht="16.5">
-      <c r="B38" s="2">
-        <v>134</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="2:6" ht="16.5">
+      <c r="B57" s="15">
+        <v>153</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="2:6" ht="16.5">
+      <c r="B58" s="15">
+        <v>154</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" spans="2:6" ht="16.5">
+      <c r="B59" s="15">
+        <v>155</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" spans="2:6" ht="16.5">
+      <c r="B60" s="15">
+        <v>156</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="16.5">
-      <c r="B39" s="2">
-        <v>135</v>
-      </c>
-      <c r="C39" s="2" t="s">
+    <row r="61" spans="2:6" ht="16.5">
+      <c r="B61" s="15">
+        <v>157</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="2:5" ht="16.5">
-      <c r="B40" s="2">
-        <v>136</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="17"/>
+    </row>
+    <row r="62" spans="2:6" ht="16.5">
+      <c r="B62" s="15">
+        <v>158</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="2:5" ht="16.5">
-      <c r="B41" s="2">
-        <v>137</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17"/>
+    </row>
+    <row r="63" spans="2:6" ht="16.5">
+      <c r="B63" s="15">
+        <v>159</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="17"/>
+    </row>
+    <row r="64" spans="2:6" ht="16.5">
+      <c r="B64" s="15">
+        <v>160</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="17"/>
+    </row>
+    <row r="65" spans="2:6" ht="16.5">
+      <c r="B65" s="15">
+        <v>161</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="17"/>
+    </row>
+    <row r="66" spans="2:6" ht="16.5">
+      <c r="B66" s="15">
+        <v>162</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="16.5">
-      <c r="B42" s="2">
-        <v>138</v>
-      </c>
-      <c r="C42" s="2" t="s">
+    <row r="67" spans="2:6" ht="16.5">
+      <c r="B67" s="15">
+        <v>163</v>
+      </c>
+      <c r="C67" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="2:5" ht="16.5">
-      <c r="B43" s="2">
-        <v>139</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="17"/>
+    </row>
+    <row r="68" spans="2:6" ht="16.5">
+      <c r="B68" s="15">
+        <v>164</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="2:5" ht="16.5">
-      <c r="B44" s="2">
-        <v>140</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="17"/>
+    </row>
+    <row r="69" spans="2:6" ht="16.5">
+      <c r="B69" s="15">
+        <v>165</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="2:5" ht="16.5">
-      <c r="B45" s="2">
-        <v>141</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="2:6" ht="16.5">
+      <c r="B70" s="15">
+        <v>166</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" spans="2:6" ht="16.5">
+      <c r="B71" s="15">
+        <v>167</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" spans="2:6" ht="16.5">
+      <c r="B72" s="15">
+        <v>168</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="17"/>
+    </row>
+    <row r="73" spans="2:6" ht="16.5">
+      <c r="B73" s="15">
+        <v>169</v>
+      </c>
+      <c r="C73" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="16.5">
-      <c r="B46" s="2">
-        <v>142</v>
-      </c>
-      <c r="C46" s="2" t="s">
+    <row r="74" spans="2:6" ht="16.5">
+      <c r="B74" s="15">
+        <v>170</v>
+      </c>
+      <c r="C74" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="2:5" ht="16.5">
-      <c r="B47" s="2">
-        <v>143</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="17"/>
+    </row>
+    <row r="75" spans="2:6" ht="16.5">
+      <c r="B75" s="15">
+        <v>171</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="17"/>
+    </row>
+    <row r="76" spans="2:6" ht="16.5">
+      <c r="B76" s="15">
+        <v>172</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="17"/>
+    </row>
+    <row r="77" spans="2:6" ht="16.5">
+      <c r="B77" s="15">
+        <v>173</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="17"/>
+    </row>
+    <row r="78" spans="2:6" ht="16.5">
+      <c r="B78" s="15">
+        <v>174</v>
+      </c>
+      <c r="C78" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="16.5">
-      <c r="B48" s="2">
-        <v>144</v>
-      </c>
-      <c r="C48" s="2" t="s">
+    <row r="79" spans="2:6" ht="16.5">
+      <c r="B79" s="15">
+        <v>175</v>
+      </c>
+      <c r="C79" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="2:5" ht="16.5">
-      <c r="B49" s="2">
-        <v>145</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" spans="2:6" ht="16.5">
+      <c r="B80" s="15">
+        <v>176</v>
+      </c>
+      <c r="C80" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="2:5" ht="16.5">
-      <c r="B50" s="2">
-        <v>146</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="17"/>
+    </row>
+    <row r="81" spans="2:6" ht="16.5">
+      <c r="B81" s="15">
+        <v>177</v>
+      </c>
+      <c r="C81" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="2:5" ht="16.5">
-      <c r="B51" s="2">
-        <v>147</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="17"/>
+    </row>
+    <row r="82" spans="2:6" ht="16.5">
+      <c r="B82" s="15">
+        <v>178</v>
+      </c>
+      <c r="C82" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="2:5" ht="16.5">
-      <c r="B52" s="2">
-        <v>148</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="17"/>
+    </row>
+    <row r="83" spans="2:6" ht="16.5">
+      <c r="B83" s="15">
+        <v>179</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="2:5" ht="16.5">
-      <c r="B53" s="2">
-        <v>149</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="17"/>
+    </row>
+    <row r="84" spans="2:6" ht="16.5">
+      <c r="B84" s="15">
+        <v>180</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" spans="2:6" ht="16.5">
+      <c r="B85" s="15">
+        <v>181</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="17"/>
+    </row>
+    <row r="86" spans="2:6" ht="16.5">
+      <c r="B86" s="15">
+        <v>182</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="17"/>
+    </row>
+    <row r="87" spans="2:6" ht="16.5">
+      <c r="B87" s="15">
+        <v>183</v>
+      </c>
+      <c r="C87" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="16.5">
-      <c r="B54" s="2">
-        <v>150</v>
-      </c>
-      <c r="C54" s="2" t="s">
+    <row r="88" spans="2:6" ht="16.5">
+      <c r="B88" s="15">
+        <v>184</v>
+      </c>
+      <c r="C88" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="2:5" ht="16.5">
-      <c r="B55" s="2">
-        <v>151</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="17"/>
+    </row>
+    <row r="89" spans="2:6" ht="16.5">
+      <c r="B89" s="15">
+        <v>185</v>
+      </c>
+      <c r="C89" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="2:5" ht="16.5">
-      <c r="B56" s="2">
-        <v>152</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="17"/>
+    </row>
+    <row r="90" spans="2:6" ht="16.5">
+      <c r="B90" s="15">
+        <v>186</v>
+      </c>
+      <c r="C90" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="2:5" ht="16.5">
-      <c r="B57" s="2">
-        <v>153</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="17"/>
+    </row>
+    <row r="91" spans="2:6" ht="16.5">
+      <c r="B91" s="15">
+        <v>187</v>
+      </c>
+      <c r="C91" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="2:5" ht="16.5">
-      <c r="B58" s="2">
-        <v>154</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="17"/>
+    </row>
+    <row r="92" spans="2:6" ht="16.5">
+      <c r="B92" s="15">
+        <v>188</v>
+      </c>
+      <c r="C92" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="2:5" ht="16.5">
-      <c r="B59" s="2">
-        <v>155</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="17"/>
+    </row>
+    <row r="93" spans="2:6" ht="16.5">
+      <c r="B93" s="15">
+        <v>189</v>
+      </c>
+      <c r="C93" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="2:5" ht="16.5">
-      <c r="B60" s="2">
-        <v>156</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="17"/>
+    </row>
+    <row r="94" spans="2:6" ht="16.5">
+      <c r="B94" s="15">
+        <v>190</v>
+      </c>
+      <c r="C94" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="2:5" ht="16.5">
-      <c r="B61" s="2">
-        <v>157</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="17"/>
+    </row>
+    <row r="95" spans="2:6" ht="16.5">
+      <c r="B95" s="15">
+        <v>191</v>
+      </c>
+      <c r="C95" s="15"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="17"/>
+    </row>
+    <row r="96" spans="2:6" ht="16.5">
+      <c r="B96" s="15">
+        <v>192</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="17"/>
+    </row>
+    <row r="97" spans="2:6" ht="16.5">
+      <c r="B97" s="15">
+        <v>193</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="17"/>
+    </row>
+    <row r="98" spans="2:6" ht="16.5">
+      <c r="B98" s="15">
+        <v>194</v>
+      </c>
+      <c r="C98" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="16.5">
-      <c r="B62" s="2">
-        <v>158</v>
-      </c>
-      <c r="C62" s="2" t="s">
+    <row r="99" spans="2:6" ht="16.5">
+      <c r="B99" s="15">
+        <v>195</v>
+      </c>
+      <c r="C99" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="2:5" ht="16.5">
-      <c r="B63" s="2">
-        <v>159</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="17"/>
+    </row>
+    <row r="100" spans="2:6" ht="16.5">
+      <c r="B100" s="15">
+        <v>196</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="17"/>
+    </row>
+    <row r="101" spans="2:6" ht="16.5">
+      <c r="B101" s="15">
+        <v>197</v>
+      </c>
+      <c r="C101" s="15"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="17"/>
+    </row>
+    <row r="102" spans="2:6" ht="16.5">
+      <c r="B102" s="15">
+        <v>198</v>
+      </c>
+      <c r="C102" s="15"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="17"/>
+    </row>
+    <row r="103" spans="2:6" ht="16.5">
+      <c r="B103" s="15">
+        <v>199</v>
+      </c>
+      <c r="C103" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="16.5">
-      <c r="B64" s="2">
-        <v>160</v>
-      </c>
-      <c r="C64" s="2" t="s">
+    <row r="104" spans="2:6" ht="16.5">
+      <c r="B104" s="15">
+        <v>200</v>
+      </c>
+      <c r="C104" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="2:5" ht="16.5">
-      <c r="B65" s="2">
-        <v>161</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="17"/>
+    </row>
+    <row r="105" spans="2:6" ht="16.5">
+      <c r="B105" s="15">
+        <v>201</v>
+      </c>
+      <c r="C105" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="2:5" ht="16.5">
-      <c r="B66" s="2">
-        <v>162</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="17"/>
+    </row>
+    <row r="106" spans="2:6" ht="16.5">
+      <c r="B106" s="15">
+        <v>202</v>
+      </c>
+      <c r="C106" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="2:5" ht="16.5">
-      <c r="B67" s="2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="16.5">
-      <c r="B68" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="16.5">
-      <c r="B69" s="2">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="16.5">
-      <c r="B70" s="2">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" ht="16.5">
-      <c r="B71" s="2">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" ht="16.5">
-      <c r="B72" s="2">
-        <v>168</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="2:5" ht="16.5">
-      <c r="B73" s="2">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="16.5">
-      <c r="B74" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" ht="16.5">
-      <c r="B75" s="2">
-        <v>171</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="2:5" ht="16.5">
-      <c r="B76" s="2">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="16.5">
-      <c r="B77" s="2">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="16.5">
-      <c r="B78" s="2">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="16.5">
-      <c r="B79" s="2">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" ht="16.5">
-      <c r="B80" s="2">
-        <v>176</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="2:5" ht="16.5">
-      <c r="B81" s="2">
-        <v>177</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="2:5" ht="16.5">
-      <c r="B82" s="2">
-        <v>178</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="2:5" ht="16.5">
-      <c r="B83" s="2">
-        <v>179</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="2:5" ht="16.5">
-      <c r="B84" s="2">
-        <v>180</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="2:5" ht="16.5">
-      <c r="B85" s="2">
-        <v>181</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="2:5" ht="16.5">
-      <c r="B86" s="2">
-        <v>182</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="2:5" ht="16.5">
-      <c r="B87" s="2">
-        <v>183</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="2:5" ht="16.5">
-      <c r="B88" s="2">
-        <v>184</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="2:5" ht="16.5">
-      <c r="B89" s="2">
-        <v>185</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="2:5" ht="16.5">
-      <c r="B90" s="2">
-        <v>186</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="2:5" ht="16.5">
-      <c r="B91" s="2">
-        <v>187</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="2:5" ht="16.5">
-      <c r="B92" s="2">
-        <v>188</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="2:5" ht="16.5">
-      <c r="B93" s="2">
-        <v>189</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="2:5" ht="16.5">
-      <c r="B94" s="2">
-        <v>190</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="2:5" ht="16.5">
-      <c r="B95" s="2">
-        <v>191</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="2:5" ht="16.5">
-      <c r="B96" s="2">
-        <v>192</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="2:5" ht="16.5">
-      <c r="B97" s="2">
-        <v>193</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="2:5" ht="16.5">
-      <c r="B98" s="2">
-        <v>194</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="2:5" ht="16.5">
-      <c r="B99" s="2">
-        <v>195</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="2:5" ht="16.5">
-      <c r="B100" s="2">
-        <v>196</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="2:5" ht="16.5">
-      <c r="B101" s="2">
-        <v>197</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="2:5" ht="16.5">
-      <c r="B102" s="2">
-        <v>198</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="2:5" ht="16.5">
-      <c r="B103" s="2">
-        <v>199</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="2:5" ht="16.5">
-      <c r="B104" s="2">
-        <v>200</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="E104" s="3"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="17"/>
+    </row>
+    <row r="107" spans="2:6" ht="16.5">
+      <c r="B107" s="15">
+        <v>203</v>
+      </c>
+      <c r="C107" s="18"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+    </row>
+    <row r="108" spans="2:6" ht="16.5">
+      <c r="B108" s="15">
+        <v>204</v>
+      </c>
+      <c r="C108" s="18"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+    </row>
+    <row r="109" spans="2:6" ht="16.5">
+      <c r="B109" s="15">
+        <v>205</v>
+      </c>
+      <c r="C109" s="18"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+    </row>
+    <row r="110" spans="2:6" ht="16.5">
+      <c r="B110" s="15">
+        <v>206</v>
+      </c>
+      <c r="C110" s="18"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+    </row>
+    <row r="111" spans="2:6" ht="16.5">
+      <c r="B111" s="15">
+        <v>207</v>
+      </c>
+      <c r="C111" s="18"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+    </row>
+    <row r="112" spans="2:6" ht="16.5">
+      <c r="B112" s="15">
+        <v>208</v>
+      </c>
+      <c r="C112" s="15"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="17"/>
+    </row>
+    <row r="113" spans="2:6" ht="16.5">
+      <c r="B113" s="15">
+        <v>209</v>
+      </c>
+      <c r="C113" s="18"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+    </row>
+    <row r="114" spans="2:6" ht="16.5">
+      <c r="B114" s="15">
+        <v>210</v>
+      </c>
+      <c r="C114" s="18"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+    </row>
+    <row r="115" spans="2:6" ht="16.5">
+      <c r="B115" s="15">
+        <v>211</v>
+      </c>
+      <c r="C115" s="15"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="17"/>
+    </row>
+    <row r="116" spans="2:6" ht="16.5">
+      <c r="B116" s="15">
+        <v>212</v>
+      </c>
+      <c r="C116" s="18"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+    </row>
+    <row r="117" spans="2:6" ht="16.5">
+      <c r="B117" s="15">
+        <v>213</v>
+      </c>
+      <c r="C117" s="18"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+    </row>
+    <row r="118" spans="2:6" ht="16.5">
+      <c r="B118" s="15">
+        <v>214</v>
+      </c>
+      <c r="C118" s="18"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+    </row>
+    <row r="119" spans="2:6" ht="16.5">
+      <c r="B119" s="15">
+        <v>215</v>
+      </c>
+      <c r="C119" s="18"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+    </row>
+    <row r="120" spans="2:6" ht="16.5">
+      <c r="B120" s="15">
+        <v>216</v>
+      </c>
+      <c r="C120" s="15"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="17"/>
+    </row>
+    <row r="121" spans="2:6" ht="16.5">
+      <c r="B121" s="15">
+        <v>217</v>
+      </c>
+      <c r="C121" s="15"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="17"/>
+    </row>
+    <row r="122" spans="2:6" ht="16.5">
+      <c r="B122" s="15">
+        <v>218</v>
+      </c>
+      <c r="C122" s="15"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="17"/>
+    </row>
+    <row r="123" spans="2:6" ht="16.5">
+      <c r="B123" s="15">
+        <v>219</v>
+      </c>
+      <c r="C123" s="15"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="17"/>
+    </row>
+    <row r="124" spans="2:6" ht="16.5">
+      <c r="B124" s="15">
+        <v>220</v>
+      </c>
+      <c r="C124" s="15"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="17"/>
+    </row>
+    <row r="125" spans="2:6" ht="16.5">
+      <c r="B125" s="15">
+        <v>221</v>
+      </c>
+      <c r="C125" s="15"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="17"/>
+    </row>
+    <row r="126" spans="2:6" ht="16.5">
+      <c r="B126" s="15">
+        <v>222</v>
+      </c>
+      <c r="C126" s="15"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="17"/>
+    </row>
+    <row r="127" spans="2:6" ht="16.5">
+      <c r="B127" s="15">
+        <v>223</v>
+      </c>
+      <c r="C127" s="15"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="17"/>
+    </row>
+    <row r="128" spans="2:6" ht="16.5">
+      <c r="B128" s="15">
+        <v>224</v>
+      </c>
+      <c r="C128" s="15"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="17"/>
+    </row>
+    <row r="129" spans="2:6" ht="16.5">
+      <c r="B129" s="15">
+        <v>225</v>
+      </c>
+      <c r="C129" s="15"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="17"/>
+    </row>
+    <row r="130" spans="2:6" ht="16.5">
+      <c r="B130" s="15">
+        <v>226</v>
+      </c>
+      <c r="C130" s="15"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="17"/>
+    </row>
+    <row r="131" spans="2:6" ht="16.5">
+      <c r="B131" s="15">
+        <v>227</v>
+      </c>
+      <c r="C131" s="15"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="17"/>
+    </row>
+    <row r="132" spans="2:6" ht="16.5">
+      <c r="B132" s="15">
+        <v>228</v>
+      </c>
+      <c r="C132" s="15"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="17"/>
+    </row>
+    <row r="133" spans="2:6" ht="16.5">
+      <c r="B133" s="15">
+        <v>229</v>
+      </c>
+      <c r="C133" s="15"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="17"/>
+    </row>
+    <row r="134" spans="2:6" ht="16.5">
+      <c r="B134" s="15">
+        <v>230</v>
+      </c>
+      <c r="C134" s="15"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="17"/>
+    </row>
+    <row r="135" spans="2:6" ht="16.5">
+      <c r="B135" s="15">
+        <v>231</v>
+      </c>
+      <c r="C135" s="15"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="17"/>
+    </row>
+    <row r="136" spans="2:6" ht="16.5">
+      <c r="B136" s="15">
+        <v>232</v>
+      </c>
+      <c r="C136" s="15"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="17"/>
+    </row>
+    <row r="137" spans="2:6" ht="16.5">
+      <c r="B137" s="15">
+        <v>233</v>
+      </c>
+      <c r="C137" s="15"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="17"/>
+    </row>
+    <row r="138" spans="2:6" ht="16.5">
+      <c r="B138" s="15">
+        <v>234</v>
+      </c>
+      <c r="C138" s="15"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="17"/>
+    </row>
+    <row r="139" spans="2:6" ht="16.5">
+      <c r="B139" s="15">
+        <v>235</v>
+      </c>
+      <c r="C139" s="15"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="17"/>
+    </row>
+    <row r="140" spans="2:6" ht="16.5">
+      <c r="B140" s="15">
+        <v>236</v>
+      </c>
+      <c r="C140" s="15"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="17"/>
+    </row>
+    <row r="141" spans="2:6" ht="16.5">
+      <c r="B141" s="15">
+        <v>237</v>
+      </c>
+      <c r="C141" s="15"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="17"/>
+    </row>
+    <row r="142" spans="2:6" ht="16.5">
+      <c r="B142" s="15">
+        <v>238</v>
+      </c>
+      <c r="C142" s="15"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="17"/>
+    </row>
+    <row r="143" spans="2:6" ht="16.5">
+      <c r="B143" s="15">
+        <v>239</v>
+      </c>
+      <c r="C143" s="15"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="17"/>
+    </row>
+    <row r="144" spans="2:6" ht="16.5">
+      <c r="B144" s="15">
+        <v>240</v>
+      </c>
+      <c r="C144" s="15"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1767,18 +2625,481 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4"/>
+  <dimension ref="B4:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="2" width="9" style="7"/>
+    <col min="3" max="3" width="31" style="7" customWidth="1"/>
+    <col min="4" max="5" width="9" style="7"/>
+    <col min="6" max="6" width="13.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
+    <row r="4" spans="2:8" ht="20.25">
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="10">
+        <v>110001</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="10">
+        <v>110002</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="10">
+        <v>110003</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="10">
+        <v>110004</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="10">
+        <v>110005</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="10">
+        <v>110006</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="10">
+        <v>110007</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="10">
+        <v>110008</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="10">
+        <v>110009</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="10">
+        <v>110010</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="10">
+        <v>110011</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="10">
+        <v>110012</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="10">
+        <v>110013</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="10">
+        <v>110014</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="10">
+        <v>110015</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="10">
+        <v>110016</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="10">
+        <v>110017</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="10">
+        <v>110018</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="10"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="10">
+        <v>169001</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="10">
+        <v>169002</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="10">
+        <v>169003</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="10">
+        <v>169004</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="10">
+        <v>169005</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="10">
+        <v>169006</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="10">
+        <v>169007</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="10">
+        <v>169008</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="10">
+        <v>169009</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="10">
+        <v>169010</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="10">
+        <v>169011</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="10">
+        <v>169012</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="10">
+        <v>169013</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="10">
+        <v>169014</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="10">
+        <v>169015</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="10">
+        <v>169016</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="10">
+        <v>169017</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="10">
+        <v>169018</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="10">
+        <v>169019</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="10">
+        <v>169020</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="10">
+        <v>169021</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1789,56 +3110,64 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:C8"/>
+  <dimension ref="B4:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="2:3">
+      <c r="B6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="5" t="s">
+    <row r="7" spans="2:3">
+      <c r="B7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="5" t="s">
+    <row r="8" spans="2:3">
+      <c r="B8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>90</v>
+      <c r="C8" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1859,7 +3188,7 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
